--- a/3. Stores/descriptivas.xlsx
+++ b/3. Stores/descriptivas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anionline-my.sharepoint.com/personal/amorales_ani_gov_co/Documents/Documentos/GitHub/Problem_Set_2-G16/3. Stores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="362" documentId="11_AE511FCF8F79A8D366075C52F37BD2722A48AEE9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{281A1F94-426B-4BC6-B604-EAFFA526EE59}"/>
+  <xr:revisionPtr revIDLastSave="380" documentId="11_AE511FCF8F79A8D366075C52F37BD2722A48AEE9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0463A209-7ADD-4410-9FA7-15D7AE7DEA84}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,19 @@
     <sheet name="Tabla descriptivas" sheetId="7" r:id="rId3"/>
     <sheet name="Descriptiva por hogar" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -484,10 +496,6 @@
 (0.33)</t>
   </si>
   <si>
-    <t>0.00 
-(0.00, 0.00)</t>
-  </si>
-  <si>
     <t>0.17 
 (0.31)</t>
   </si>
@@ -543,12 +551,19 @@
   </si>
   <si>
     <t>No. de personas con trabajo formal</t>
+  </si>
+  <si>
+    <t>0.08
+(0.00, 0.00)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -626,18 +641,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -669,6 +678,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1010,7 +1027,7 @@
   <dimension ref="A1:AR15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2869,7 +2886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D687D3CC-42DD-4494-A57E-B12DE10586D1}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -4019,626 +4036,627 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="28.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>28</v>
+      </c>
+      <c r="F2" s="3">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3</v>
+      </c>
+      <c r="H2" s="12">
+        <v>3.29530478009154</v>
+      </c>
+      <c r="I2" s="12">
+        <v>1.7765992429804871</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="12">
+        <v>99544.843244333053</v>
+      </c>
+      <c r="E3" s="12">
+        <v>131125.56583564001</v>
+      </c>
+      <c r="F3" s="12">
+        <v>31580.722591306931</v>
+      </c>
+      <c r="G3" s="12">
+        <v>121603.8632972695</v>
+      </c>
+      <c r="H3" s="12">
+        <v>120415.6950018989</v>
+      </c>
+      <c r="I3" s="12">
+        <v>7179.0330964142559</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="12">
+        <v>167222.47763033811</v>
+      </c>
+      <c r="E4" s="3">
+        <v>303816.69022644882</v>
+      </c>
+      <c r="F4" s="12">
+        <v>136594.21259611059</v>
+      </c>
+      <c r="G4" s="3">
+        <v>280028.71040459839</v>
+      </c>
+      <c r="H4" s="12">
+        <v>271604.39784175408</v>
+      </c>
+      <c r="I4" s="12">
+        <v>33543.759522266977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+      <c r="H5" s="12">
+        <v>3.3883301506471462</v>
+      </c>
+      <c r="I5" s="12">
+        <v>1.2148565842778429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1.7282631698977069</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0.83164046672170433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="12">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="E7" s="3">
+        <v>102</v>
+      </c>
+      <c r="F7" s="12">
+        <v>96.333333333333329</v>
+      </c>
+      <c r="G7" s="3">
+        <v>33.5</v>
+      </c>
+      <c r="H7" s="12">
+        <v>37.45220847223483</v>
+      </c>
+      <c r="I7" s="12">
+        <v>16.879496275687089</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="3">
+        <v>55974</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="3">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1.16583916825801</v>
+      </c>
+      <c r="I8" s="12">
+        <v>1.117667392415973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="3">
+        <v>93346</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0.57664817677548419</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0.75937045048720664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2605</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="3">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3">
+        <v>27</v>
+      </c>
+      <c r="G10" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="H10" s="12">
+        <v>10.30432575203606</v>
+      </c>
+      <c r="I10" s="12">
+        <v>4.1019402225906259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="3">
+        <v>22138</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="3">
+        <v>130</v>
+      </c>
+      <c r="F11" s="3">
+        <v>130</v>
+      </c>
+      <c r="G11" s="3">
+        <v>44</v>
+      </c>
+      <c r="H11" s="12">
+        <v>39.177487130273803</v>
+      </c>
+      <c r="I11" s="12">
+        <v>19.650293779809541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="3">
+        <v>13220</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="3">
+        <v>85833333.333333328</v>
+      </c>
+      <c r="F12" s="3">
+        <v>85833333.333333328</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1187717</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1801440.6009997521</v>
+      </c>
+      <c r="I12" s="12">
+        <v>2339945.3800000618</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="3">
+        <v>93346</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0.34331053272082651</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.42862245283119721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3">
+        <v>80203</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="3">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3">
+        <v>9</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0.42295163251004991</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.56101627394894138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="3">
+        <v>153588</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" s="18">
+        <v>6.8909702646176227E-2</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0.25330129192587658</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="B16" s="3">
+        <v>71127</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
-        <v>28</v>
-      </c>
-      <c r="F2" s="5">
-        <v>27</v>
-      </c>
-      <c r="G2" s="5">
-        <v>3</v>
-      </c>
-      <c r="H2" s="14">
-        <v>3.29530478009154</v>
-      </c>
-      <c r="I2" s="14">
-        <v>1.7765992429804871</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0.5688096753660089</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.49524409683152892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="3">
+        <v>140035</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="14">
-        <v>99544.843244333053</v>
-      </c>
-      <c r="E3" s="14">
-        <v>131125.56583564001</v>
-      </c>
-      <c r="F3" s="14">
-        <v>31580.722591306931</v>
-      </c>
-      <c r="G3" s="14">
-        <v>121603.8632972695</v>
-      </c>
-      <c r="H3" s="14">
-        <v>120415.6950018989</v>
-      </c>
-      <c r="I3" s="14">
-        <v>7179.0330964142559</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="H17" s="18">
+        <v>0.15107150434967101</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0.35811964817088943</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="3">
+        <v>22138</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="14">
-        <v>167222.47763033811</v>
-      </c>
-      <c r="E4" s="5">
-        <v>303816.69022644882</v>
-      </c>
-      <c r="F4" s="14">
-        <v>136594.21259611059</v>
-      </c>
-      <c r="G4" s="5">
-        <v>280028.71040459839</v>
-      </c>
-      <c r="H4" s="14">
-        <v>271604.39784175408</v>
-      </c>
-      <c r="I4" s="14">
-        <v>33543.759522266977</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0.58283007095790262</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0.33832308093620378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="3">
+        <v>138670</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5">
-        <v>17</v>
-      </c>
-      <c r="G5" s="5">
-        <v>3</v>
-      </c>
-      <c r="H5" s="14">
-        <v>3.3883301506471462</v>
-      </c>
-      <c r="I5" s="14">
-        <v>1.2148565842778429</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="5">
-        <v>16</v>
-      </c>
-      <c r="F6" s="5">
-        <v>15.8</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="H6" s="14">
-        <v>1.7282631698977069</v>
-      </c>
-      <c r="I6" s="14">
-        <v>0.83164046672170433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="H19" s="18">
+        <v>8.8239369910734819E-2</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0.22693013858619909</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="3">
+        <v>59582</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="14">
-        <v>5.666666666666667</v>
-      </c>
-      <c r="E7" s="5">
-        <v>102</v>
-      </c>
-      <c r="F7" s="14">
-        <v>96.333333333333329</v>
-      </c>
-      <c r="G7" s="5">
-        <v>33.5</v>
-      </c>
-      <c r="H7" s="14">
-        <v>37.45220847223483</v>
-      </c>
-      <c r="I7" s="14">
-        <v>16.879496275687089</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="5">
-        <v>55974</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0.3534426942611929</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0.32660312905648731</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="13">
+        <v>16498</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D21" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="5">
-        <v>12</v>
-      </c>
-      <c r="F8" s="5">
-        <v>12</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="14">
-        <v>1.16583916825801</v>
-      </c>
-      <c r="I8" s="14">
-        <v>1.117667392415973</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="5">
-        <v>93346</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="5">
-        <v>8</v>
-      </c>
-      <c r="F9" s="5">
-        <v>8</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9" s="14">
-        <v>0.57664817677548419</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0.75937045048720664</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="5">
-        <v>2605</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="5">
-        <v>27</v>
-      </c>
-      <c r="F10" s="5">
-        <v>27</v>
-      </c>
-      <c r="G10" s="5">
-        <v>10.5</v>
-      </c>
-      <c r="H10" s="14">
-        <v>10.30432575203606</v>
-      </c>
-      <c r="I10" s="14">
-        <v>4.1019402225906259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="5">
-        <v>22138</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="5">
-        <v>130</v>
-      </c>
-      <c r="F11" s="5">
-        <v>130</v>
-      </c>
-      <c r="G11" s="5">
-        <v>44</v>
-      </c>
-      <c r="H11" s="14">
-        <v>39.177487130273803</v>
-      </c>
-      <c r="I11" s="14">
-        <v>19.650293779809541</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" s="5">
-        <v>13220</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="5">
-        <v>85833333.333333328</v>
-      </c>
-      <c r="F12" s="5">
-        <v>85833333.333333328</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1187717</v>
-      </c>
-      <c r="H12" s="14">
-        <v>1801440.6009997521</v>
-      </c>
-      <c r="I12" s="14">
-        <v>2339945.3800000618</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="5">
-        <v>93346</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0.34331053272082651</v>
-      </c>
-      <c r="I13" s="14">
-        <v>0.42862245283119721</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="5">
-        <v>80203</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="5">
-        <v>9</v>
-      </c>
-      <c r="F14" s="5">
-        <v>9</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H14" s="14">
-        <v>0.42295163251004991</v>
-      </c>
-      <c r="I14" s="14">
-        <v>0.56101627394894138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="5">
-        <v>153588</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15" s="14">
-        <v>6.8909702646176227E-2</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0.25330129192587658</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="5">
-        <v>71127</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-      <c r="H16" s="14">
-        <v>0.5688096753660089</v>
-      </c>
-      <c r="I16" s="14">
-        <v>0.49524409683152892</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="5">
-        <v>140035</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H17" s="14">
-        <v>0.15107150434967109</v>
-      </c>
-      <c r="I17" s="14">
-        <v>0.35811964817088943</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="5">
-        <v>22138</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="H18" s="14">
-        <v>0.58283007095790262</v>
-      </c>
-      <c r="I18" s="14">
-        <v>0.33832308093620378</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B19" s="5">
-        <v>138670</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19" s="14">
-        <v>8.8239369910734819E-2</v>
-      </c>
-      <c r="I19" s="14">
-        <v>0.22693013858619909</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B20" s="5">
-        <v>59582</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1</v>
-      </c>
-      <c r="G20" s="14">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H20" s="14">
-        <v>0.3534426942611929</v>
-      </c>
-      <c r="I20" s="14">
-        <v>0.32660312905648731</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" s="15">
-        <v>16498</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="15">
-        <v>1</v>
-      </c>
-      <c r="F21" s="15">
-        <v>1</v>
-      </c>
-      <c r="G21" s="16">
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1</v>
+      </c>
+      <c r="G21" s="14">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="19">
         <v>0.6465573057388071</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="14">
         <v>0.32660312905648731</v>
       </c>
     </row>
@@ -4651,334 +4669,334 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0CA27F-928E-4435-B6DF-E35F79C2A906}">
   <dimension ref="B2:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="B2:E26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="5"/>
-    <col min="2" max="2" width="26.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="11.42578125" style="3"/>
+    <col min="2" max="2" width="26.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="2:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="2:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="B15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="B16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="B17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="B18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="B19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="B22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="B9" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="B11" s="9">
-        <v>0</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="B12" s="9">
-        <v>1</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="B13" s="9">
-        <v>2</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" spans="2:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="B15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="B16" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="B17" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="B18" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="B19" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="B20" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="B21" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="B22" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="B23" s="9" t="s">
+      <c r="C23" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="B24" s="9" t="s">
+      <c r="C24" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="C25" s="11" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="E25" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>63</v>
       </c>
     </row>

--- a/3. Stores/descriptivas.xlsx
+++ b/3. Stores/descriptivas.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="380" documentId="11_AE511FCF8F79A8D366075C52F37BD2722A48AEE9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0463A209-7ADD-4410-9FA7-15D7AE7DEA84}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -562,7 +562,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -678,14 +678,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4035,7 +4035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3276E1-48D1-4C27-8755-0FB94642D598}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -4479,7 +4479,7 @@
       <c r="G15" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="16">
         <v>6.8909702646176227E-2</v>
       </c>
       <c r="I15" s="12">
@@ -4508,7 +4508,7 @@
       <c r="G16" s="3">
         <v>1</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="16">
         <v>0.5688096753660089</v>
       </c>
       <c r="I16" s="12">
@@ -4537,7 +4537,7 @@
       <c r="G17" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="16">
         <v>0.15107150434967101</v>
       </c>
       <c r="I17" s="12">
@@ -4566,7 +4566,7 @@
       <c r="G18" s="3">
         <v>0.5</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="16">
         <v>0.58283007095790262</v>
       </c>
       <c r="I18" s="12">
@@ -4595,7 +4595,7 @@
       <c r="G19" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="16">
         <v>8.8239369910734819E-2</v>
       </c>
       <c r="I19" s="12">
@@ -4624,7 +4624,7 @@
       <c r="G20" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="16">
         <v>0.3534426942611929</v>
       </c>
       <c r="I20" s="12">
@@ -4653,7 +4653,7 @@
       <c r="G21" s="14">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="17">
         <v>0.6465573057388071</v>
       </c>
       <c r="I21" s="14">
@@ -4669,8 +4669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0CA27F-928E-4435-B6DF-E35F79C2A906}">
   <dimension ref="B2:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4684,18 +4684,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="4" t="s">
         <v>64</v>
       </c>
